--- a/jpcore-r4/feature/swg1-medicationsample-warning/ValueSet-jp-procedure-not-performed-reason-vs.xlsx
+++ b/jpcore-r4/feature/swg1-medicationsample-warning/ValueSet-jp-procedure-not-performed-reason-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T04:50:20+00:00</t>
+    <t>2022-06-28T05:37:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg1-medicationsample-warning/ValueSet-jp-procedure-not-performed-reason-vs.xlsx
+++ b/jpcore-r4/feature/swg1-medicationsample-warning/ValueSet-jp-procedure-not-performed-reason-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T05:37:50+00:00</t>
+    <t>2022-06-28T12:23:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg1-medicationsample-warning/ValueSet-jp-procedure-not-performed-reason-vs.xlsx
+++ b/jpcore-r4/feature/swg1-medicationsample-warning/ValueSet-jp-procedure-not-performed-reason-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T12:23:00+00:00</t>
+    <t>2022-06-28T12:45:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg1-medicationsample-warning/ValueSet-jp-procedure-not-performed-reason-vs.xlsx
+++ b/jpcore-r4/feature/swg1-medicationsample-warning/ValueSet-jp-procedure-not-performed-reason-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T12:45:55+00:00</t>
+    <t>2022-06-28T13:12:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg1-medicationsample-warning/ValueSet-jp-procedure-not-performed-reason-vs.xlsx
+++ b/jpcore-r4/feature/swg1-medicationsample-warning/ValueSet-jp-procedure-not-performed-reason-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T13:12:52+00:00</t>
+    <t>2022-06-29T23:41:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg1-medicationsample-warning/ValueSet-jp-procedure-not-performed-reason-vs.xlsx
+++ b/jpcore-r4/feature/swg1-medicationsample-warning/ValueSet-jp-procedure-not-performed-reason-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T23:41:52+00:00</t>
+    <t>2022-06-30T00:04:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg1-medicationsample-warning/ValueSet-jp-procedure-not-performed-reason-vs.xlsx
+++ b/jpcore-r4/feature/swg1-medicationsample-warning/ValueSet-jp-procedure-not-performed-reason-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30T00:04:36+00:00</t>
+    <t>2022-06-30T00:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg1-medicationsample-warning/ValueSet-jp-procedure-not-performed-reason-vs.xlsx
+++ b/jpcore-r4/feature/swg1-medicationsample-warning/ValueSet-jp-procedure-not-performed-reason-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30T00:41:12+00:00</t>
+    <t>2022-06-30T02:01:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
